--- a/UnityProject/Assets/Doc/Excel/Avatar.xlsx
+++ b/UnityProject/Assets/Doc/Excel/Avatar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,6 +143,36 @@
   <si>
     <t>次</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号角色</t>
+  </si>
+  <si>
+    <t>char03</t>
+  </si>
+  <si>
+    <t>4号角色</t>
+  </si>
+  <si>
+    <t>char04</t>
+  </si>
+  <si>
+    <t>5号角色</t>
+  </si>
+  <si>
+    <t>char05</t>
+  </si>
+  <si>
+    <t>6号角色</t>
+  </si>
+  <si>
+    <t>char06</t>
+  </si>
+  <si>
+    <t>7号角色</t>
+  </si>
+  <si>
+    <t>char07</t>
   </si>
 </sst>
 </file>
@@ -516,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,6 +628,91 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>100003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>100004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>100005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>100006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>100007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
